--- a/datasets/module compensating effects/plotting files/plot_nestedness.xlsx
+++ b/datasets/module compensating effects/plotting files/plot_nestedness.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -164,9 +164,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1088,13 +1087,15 @@
   <sheetPr/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.625" style="1"/>
+    <col min="1" max="2" width="9.625" style="1"/>
+    <col min="3" max="3" width="11.125" style="1"/>
+    <col min="4" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -2736,7 +2737,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D100" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D117" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2750,13 +2751,15 @@
   <sheetPr/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A61" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.625" style="1"/>
+    <col min="1" max="2" width="9.625" style="1"/>
+    <col min="3" max="4" width="11.125" style="1"/>
+    <col min="5" max="16384" width="9.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -4398,7 +4401,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D100" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D117" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
